--- a/budget.xlsx
+++ b/budget.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHATTER\Documents\NSBM\2nd YEAR\PUSL2008 Introduction to Internet of Things\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHATTER\Documents\NSBM\2nd YEAR\PUSL2008 Introduction to Internet of Things\NOVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECEED2F-D591-44DE-8FA8-F1F39008DC75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1D3224-E71B-49EE-A163-192B64C5C09C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{DC76810E-37CD-45BB-9FD3-83D4216F6CDD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>NodeMcu V3 Lua CP2102 ESP8266 WIFI Internet of Things (IOT) development board</t>
   </si>
@@ -160,6 +160,39 @@
   </si>
   <si>
     <t>step up  module for water pump</t>
+  </si>
+  <si>
+    <t>ultrasonic</t>
+  </si>
+  <si>
+    <t>ultrasonic bracket</t>
+  </si>
+  <si>
+    <t>sim800l</t>
+  </si>
+  <si>
+    <t>buck convertor</t>
+  </si>
+  <si>
+    <t>3700mah battery</t>
+  </si>
+  <si>
+    <t>battery holder</t>
+  </si>
+  <si>
+    <t>chager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bord </t>
+  </si>
+  <si>
+    <t>glue &amp; clip</t>
+  </si>
+  <si>
+    <t>buzzer</t>
+  </si>
+  <si>
+    <t>other(wire/bord/jack/jackbase)</t>
   </si>
 </sst>
 </file>
@@ -575,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C391614-2F7F-44ED-BEE5-C4C29929DAE0}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B50" sqref="A20:B50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,6 +766,10 @@
         <f>SUM(B1:B15)</f>
         <v>20065</v>
       </c>
+      <c r="D16">
+        <f>3700*5</f>
+        <v>18500</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -753,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>1025</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -761,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -793,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="B25">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -817,7 +854,7 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -889,7 +926,7 @@
         <v>24</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -897,7 +934,7 @@
         <v>26</v>
       </c>
       <c r="B38">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -945,7 +982,7 @@
         <v>36</v>
       </c>
       <c r="B44">
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -978,7 +1015,7 @@
       </c>
       <c r="B48">
         <f>SUM(B20:B47)</f>
-        <v>21485</v>
+        <v>22045</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -996,7 +1033,7 @@
       </c>
       <c r="B50">
         <f>B49-B48</f>
-        <v>715</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1019,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE231F8E-6945-4465-9142-B3BA29ACD534}">
-  <dimension ref="A2:F11"/>
+  <dimension ref="A2:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,18 +1067,18 @@
     <col min="1" max="1" width="71.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2">
+        <v>7500</v>
+      </c>
+      <c r="C2">
         <v>6500</v>
       </c>
-      <c r="C2">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1049,13 +1086,20 @@
         <v>300</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>350</v>
+      </c>
+      <c r="E3">
+        <v>3600</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f>E3*F3</f>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1063,14 +1107,14 @@
         <v>150</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F4">
-        <f>(3600*5)</f>
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <f>(3600*F85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1078,7 +1122,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1086,7 +1130,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1094,10 +1138,10 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1105,7 +1149,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1116,23 +1160,125 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10">
         <f>SUM(B2:B9)</f>
-        <v>15291</v>
+        <v>16291</v>
       </c>
       <c r="C10">
         <f>B10/5</f>
-        <v>3058.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3258.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>B10-B2</f>
         <v>8791</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f>SUM(B14:B25)</f>
+        <v>17235</v>
       </c>
     </row>
   </sheetData>
